--- a/installation/1403-11-01/windows10/components.xlsx
+++ b/installation/1403-11-01/windows10/components.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\payameno\installation\1403-11-01\windows10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Payam\Documents\GitHub\payameno\installation\1403-11-01\windows10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA081874-331D-44C9-B9E2-F74CA5384FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DAA358-9D5B-4CDB-AB39-777DA7BD3897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2955" windowWidth="17625" windowHeight="6765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="64 bit" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Install Jdeveloper 11.1.1.6</t>
   </si>
@@ -66,10 +66,13 @@
     <t>config real path on the domain</t>
   </si>
   <si>
-    <t xml:space="preserve"> SET GLOBAL log_bin_trust_function_creators = 1;</t>
-  </si>
-  <si>
     <t>config My SQL  in Console</t>
+  </si>
+  <si>
+    <t>create domain</t>
+  </si>
+  <si>
+    <t>mysql-connector-java-5.1.49-bin.jar</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,13 +428,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -441,27 +441,35 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>

--- a/installation/1403-11-01/windows10/components.xlsx
+++ b/installation/1403-11-01/windows10/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Payam\Documents\GitHub\payameno\installation\1403-11-01\windows10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DAA358-9D5B-4CDB-AB39-777DA7BD3897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EBC73E-B48D-41EB-A9E5-4A3C4C171307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Install Jdeveloper 11.1.1.6</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Install Navicat for my SQL 16</t>
   </si>
   <si>
-    <t>import SQL Scripts</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ALTER USER 'root'@'localhost' IDENTIFIED WITH mysql_native_password BY 'root'</t>
   </si>
   <si>
@@ -69,10 +66,22 @@
     <t>config My SQL  in Console</t>
   </si>
   <si>
-    <t>create domain</t>
-  </si>
-  <si>
     <t>mysql-connector-java-5.1.49-bin.jar</t>
+  </si>
+  <si>
+    <t>Excecute SQL Scripts</t>
+  </si>
+  <si>
+    <t>1-school_new_structure_tables , 2-school_new_structure_functions , 3-school_new_structure_views , 4- school_new_starter_data</t>
+  </si>
+  <si>
+    <t>deploy Codes on domain by jdeveloper</t>
+  </si>
+  <si>
+    <t>root root</t>
+  </si>
+  <si>
+    <t>adf-richclient-impl-11 , adf.oracle.domain.webapp</t>
   </si>
 </sst>
 </file>
@@ -393,7 +402,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,52 +434,61 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/installation/1403-11-01/windows10/components.xlsx
+++ b/installation/1403-11-01/windows10/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Payam\Documents\GitHub\payameno\installation\1403-11-01\windows10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EBC73E-B48D-41EB-A9E5-4A3C4C171307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E6B5F-E605-47ED-9185-51E005F1683B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Instal Fonts</t>
   </si>
   <si>
-    <t xml:space="preserve"> B titr</t>
-  </si>
-  <si>
     <t>config real path on the domain</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>adf-richclient-impl-11 , adf.oracle.domain.webapp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B titr , B nazanin</t>
   </si>
 </sst>
 </file>
@@ -435,12 +435,12 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,17 +462,17 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,7 +488,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/installation/1403-11-01/windows10/components.xlsx
+++ b/installation/1403-11-01/windows10/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Payam\Documents\GitHub\payameno\installation\1403-11-01\windows10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E6B5F-E605-47ED-9185-51E005F1683B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E8022E-1867-44F5-A492-7E2613E9E660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Install Jdeveloper 11.1.1.6</t>
   </si>
@@ -75,13 +75,16 @@
     <t>deploy Codes on domain by jdeveloper</t>
   </si>
   <si>
-    <t>root root</t>
-  </si>
-  <si>
     <t>adf-richclient-impl-11 , adf.oracle.domain.webapp</t>
   </si>
   <si>
     <t xml:space="preserve"> B titr , B nazanin</t>
+  </si>
+  <si>
+    <t>افزودن path به sqldump</t>
+  </si>
+  <si>
+    <t>change windows local to support UTF8</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -480,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,7 +491,12 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
